--- a/gallery.xlsx
+++ b/gallery.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -72,6 +72,18 @@
 世界が違っても乾杯の瞬間だけは必ず揃う。チンと響くその一瞬、時間は静止する。
 この車両に終点はないが、夜だけは必ず来る。そして今日もまたどこかの世界が終わって、誰かがこの車内へ流れ着いた。
 ドアは開かないのに、確かに増えていく。</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>生物インフラ,昭和デスク,会社員の部屋</t>
+  </si>
+  <si>
+    <t>甲殻住宅セクター</t>
+  </si>
+  <si>
+    <t>26.02.28</t>
   </si>
 </sst>
 </file>
@@ -490,11 +502,21 @@
       <c r="Y4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>

--- a/gallery.xlsx
+++ b/gallery.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -84,6 +84,42 @@
   </si>
   <si>
     <t>26.02.28</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>断面構造,生体マシン,移動オフィス</t>
+  </si>
+  <si>
+    <t>殻の中の定時業務</t>
+  </si>
+  <si>
+    <t>26.03.01</t>
+  </si>
+  <si>
+    <t>さあ 今日は仕事を始めよう
+ここは砂漠エリア
+二週間の滞在だ
+最初は乾いた風に戸惑うが
+そのうち慣れる
+ぼちぼちやればいい
+食料は一階の池にある
+あの水槽の魚だ
+天日干しにするか
+新鮮なら刺身にして
+夕日を眺めながらビールでもやろう
+巨大な殻の内側で
+今日も各部署が動き出す
+カタカタと低い送風音
+おや
+ドクン
+ドクンと床の奥から心臓音
+ああ 彼が目覚めている
+この施設は機械ではない
+生き物だ
+うん
+今日も「正常に異常」</t>
   </si>
 </sst>
 </file>
@@ -352,6 +388,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="117.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -539,11 +578,21 @@
       <c r="Y5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>

--- a/gallery.xlsx
+++ b/gallery.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -120,6 +120,39 @@
 生き物だ
 うん
 今日も「正常に異常」</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>忍者会議,昭和レトロ和室,ネオン海面</t>
+  </si>
+  <si>
+    <t>キャプテンの判断</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ニンニン
+みんな揃ったな
+そういえば今晩のミッション みんなわかってるかな
+少し危険な作業になるかもしれないが 頼んだぞ
+はい
+任務内容は頭に叩き込んであります
+よし、なら飯を食って 少し休め
+ところで一つだけ質問いいですか？
+なんだ新人
+今日のクラゲ
+なんかいつもよりちょっと大きくないですか
+ドキン
+気づいたか。
+あれは気にするな 任務とは関係ない
+え？でもフワリあんなに光って。。
+忍者は見たものすべてに反応しない
+それが生き残るコツだ
+はい
+よし
+では作戦開始まで
+静かに食え
+</t>
   </si>
 </sst>
 </file>
@@ -615,11 +648,21 @@
       <c r="Y6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>

--- a/gallery.xlsx
+++ b/gallery.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -153,6 +153,39 @@
 では作戦開始まで
 静かに食え
 </t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>宇宙飛行士,和服女性,魚</t>
+  </si>
+  <si>
+    <t>味付けはマイティーズ</t>
+  </si>
+  <si>
+    <t>26.03.02</t>
+  </si>
+  <si>
+    <t>地下施設の食堂は ブウンと低く唸っている
+焼いた魚の切り身、肉の缶詰、厚いトーストが無機質なトレイに整列している
+配管の奥で空気が循環する音だけが響く
+宇宙服の男がカウンターに立つ
+ああ 今日の業務も疲れた
+いつもの魚のワインミッシュとコンビーフを一つ
+そしてトーストを一枚くれないかな
+着物姿の店員は 静かにうなずく
+帯に刺繍された星座が淡く瞬く
+はいよ お仕事お疲れ様
+今日の味付けは マイティーズよ
+マイティーズか。
+ヘルメット越しに小さく息をつく
+ありがとう
+これで今晩もゆっくり寝れるよ
+ジュウと鉄板が鳴る
+遠くで 別の宇宙服が同じ料理を受け取っている
+地上はもうないのに、この街だけが昭和の匂いを守りながら
+宇宙で夕食を続けている</t>
   </si>
 </sst>
 </file>
@@ -685,11 +718,21 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
